--- a/excels/datas/__enums__.xlsx
+++ b/excels/datas/__enums__.xlsx
@@ -263,7 +263,7 @@
     <t>后排友军攻击时触发</t>
   </si>
   <si>
-    <t>EEffectType</t>
+    <t>EAbilityAction</t>
   </si>
   <si>
     <t>ModifyStats</t>
@@ -1552,15 +1552,15 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="$A10:$XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="6.35714285714286" customWidth="1"/>
     <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="97.3571428571429" customWidth="1"/>
+    <col min="3" max="3" width="9.97321428571429" customWidth="1"/>
     <col min="4" max="4" width="16.2142857142857" customWidth="1"/>
     <col min="5" max="5" width="5.78571428571429" customWidth="1"/>
     <col min="6" max="6" width="8.78571428571429" customWidth="1"/>

--- a/excels/datas/__enums__.xlsx
+++ b/excels/datas/__enums__.xlsx
@@ -1552,14 +1552,14 @@
   <sheetPr/>
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="6.35714285714286" customWidth="1"/>
-    <col min="2" max="2" width="22.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.8392857142857" customWidth="1"/>
     <col min="3" max="3" width="9.97321428571429" customWidth="1"/>
     <col min="4" max="4" width="16.2142857142857" customWidth="1"/>
     <col min="5" max="5" width="5.78571428571429" customWidth="1"/>
